--- a/me-docs/7.nhung-giao-dien-cho-backend.xlsx
+++ b/me-docs/7.nhung-giao-dien-cho-backend.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3497FFA0-7378-466A-B75D-DEF6AC23CAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9333D13A-6B0D-488A-960D-9316E0BA8485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extends" sheetId="1" r:id="rId1"/>
     <sheet name="Load css js" sheetId="2" r:id="rId2"/>
+    <sheet name="split file" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Copy theme admin to project</t>
   </si>
@@ -47,6 +48,39 @@
   </si>
   <si>
     <t>Sử dụng asset() để load các tập tin về js, css, hình ảnh</t>
+  </si>
+  <si>
+    <t>head.blade.php</t>
+  </si>
+  <si>
+    <t>include head</t>
+  </si>
+  <si>
+    <t>script.blade.php</t>
+  </si>
+  <si>
+    <t>footer.blade.php</t>
+  </si>
+  <si>
+    <t>sidebar_title.blade.php</t>
+  </si>
+  <si>
+    <t>dashboard/index.blade.php</t>
+  </si>
+  <si>
+    <t>top_nav.blade.php</t>
+  </si>
+  <si>
+    <t>slider/index.blade.php</t>
+  </si>
+  <si>
+    <t>Access url to check</t>
+  </si>
+  <si>
+    <t>http://proj_news.xyz/admin/dashboard</t>
+  </si>
+  <si>
+    <t>http://proj_news.xyz/admin/slider</t>
   </si>
 </sst>
 </file>
@@ -82,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,6 +487,803 @@
         <a:xfrm>
           <a:off x="609600" y="5905500"/>
           <a:ext cx="11390476" cy="4352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>236647</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC8185B-3A90-4CAF-ACC9-4C3F99B40DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11819047" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB34617-054C-4BEC-B15A-10819E2D7708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="8000000" cy="2485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322514</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A44B2-6B94-401F-9820-B5AC74A5A564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8572500"/>
+          <a:ext cx="10685714" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27047</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B95E027-B680-408A-9A4A-E16E48B39E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12382500"/>
+          <a:ext cx="12219047" cy="4000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274971</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>37786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61EAE16-4FDD-43DF-94AD-A3F4011948D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16764000"/>
+          <a:ext cx="10028571" cy="2514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>513067</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>151976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E4352E-2457-4B34-970A-0BA6908F67FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19431000"/>
+          <a:ext cx="10266667" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>551009</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>18262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A7CA82-F7CB-4CD4-A816-03745B6F2ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23241000"/>
+          <a:ext cx="11523809" cy="6304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541943</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>142571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDE3CC9-88C4-40B6-A525-BED3C7C274F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29718000"/>
+          <a:ext cx="7857143" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503695</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>8976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB61A51-491F-42D9-9A8C-27B09F98A626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36385500"/>
+          <a:ext cx="9038095" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170057</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>189690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C37533-F210-4917-AA30-88EDF451A71B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="41148000"/>
+          <a:ext cx="11142857" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408457</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>113714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA59D67-9146-435E-810D-5939E2DA72E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="47815500"/>
+          <a:ext cx="8942857" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>551162</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>94905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EB4514-65C2-4165-B9F8-0C5C568E339F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="52959000"/>
+          <a:ext cx="10304762" cy="2761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>589257</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>151833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD23AE0-5E02-4827-907C-185D9EB2969E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="55816500"/>
+          <a:ext cx="10342857" cy="4533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17752</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>94809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE8086C-07DF-4513-A01F-C9294F78DDA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32575500"/>
+          <a:ext cx="10380952" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141486</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>46881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25853277-1832-4BAF-A597-AB0D0223AEAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="60769500"/>
+          <a:ext cx="11114286" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446628</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>8833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E90F7C-71FA-4417-B844-976C8BA029A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="67056000"/>
+          <a:ext cx="8371428" cy="5533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>46019</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>189881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72027459-90E1-4AA8-9F27-15CB970ABBAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="73152000"/>
+          <a:ext cx="12847619" cy="4952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26971</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>142048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDDC030-867C-4F7F-A40A-30095BA324C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="78486000"/>
+          <a:ext cx="12828571" cy="6619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38464F6-5837-435C-AE5E-51C8E21E835C}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -789,4 +1621,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A0F1FD-CC53-401E-BC6F-ABF5332F7811}">
+  <dimension ref="A2:B412"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="B449" sqref="B449"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/7.nhung-giao-dien-cho-backend.xlsx
+++ b/me-docs/7.nhung-giao-dien-cho-backend.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9333D13A-6B0D-488A-960D-9316E0BA8485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A1FD3-4EC9-446F-B49C-C28BD9F75E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extends" sheetId="1" r:id="rId1"/>
     <sheet name="Load css js" sheetId="2" r:id="rId2"/>
     <sheet name="split file" sheetId="3" r:id="rId3"/>
+    <sheet name="menu link" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Copy theme admin to project</t>
   </si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>http://proj_news.xyz/admin/slider</t>
+  </si>
+  <si>
+    <t>sidebar_menu.blade.php</t>
   </si>
 </sst>
 </file>
@@ -1284,6 +1288,187 @@
         <a:xfrm>
           <a:off x="609600" y="78486000"/>
           <a:ext cx="12828571" cy="6619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>589181</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1C8853-EC3B-4A48-A63A-B066870182BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10952381" cy="5038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46247</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>94881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30502F7-FDAD-4913-9BEE-AEB3FE773600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="11019047" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>465676</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>170738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3EBD0B-AF9D-45C8-932A-2964CC5E47CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15240000"/>
+          <a:ext cx="8390476" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322514</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>151690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D255AB-19A2-4D7E-B245-E1946796F7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9144000"/>
+          <a:ext cx="10685714" cy="5676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1627,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A0F1FD-CC53-401E-BC6F-ABF5332F7811}">
   <dimension ref="A2:B412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+    <sheetView topLeftCell="A433" workbookViewId="0">
       <selection activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
@@ -1702,4 +1887,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49DB961-9197-4052-B244-6D8EB1412371}">
+  <dimension ref="A2:A80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>